--- a/relatorios/repasses_liberados/dentistas/59838434434/2023-08-25_relatorio_repasses_59838434434.xlsx
+++ b/relatorios/repasses_liberados/dentistas/59838434434/2023-08-25_relatorio_repasses_59838434434.xlsx
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
         <v>0</v>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N287">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/59838434434/2023-08-25_relatorio_repasses_59838434434.xlsx
+++ b/relatorios/repasses_liberados/dentistas/59838434434/2023-08-25_relatorio_repasses_59838434434.xlsx
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -9990,10 +9990,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N207">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
         <v>0</v>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
         <v>0</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -11266,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
         <v>0</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N243">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N249">
         <v>0</v>
@@ -12278,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -12410,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
         <v>0</v>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -13114,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -13774,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
         <v>0</v>
